--- a/Sushmita/pythonprogram/File Handling/Excel_file_handling/test_data1.xlsx
+++ b/Sushmita/pythonprogram/File Handling/Excel_file_handling/test_data1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\Sushmitashastri23\Newpython\GTM_PS_Batch04\Sushmita\pythonprogram\File Handling\Excel_file_handling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D04D6A0-47AA-4218-BEDF-DCD2DA9CC540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA7BE30-4791-49C7-9CD7-3CDFCD426D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -370,7 +371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -525,6 +526,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C84E575-BA74-494A-8F41-025FF5A7612A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7262E3D8-D358-4921-86FD-B33C5E724294}">
   <dimension ref="A1:O1"/>
   <sheetViews>
